--- a/ResultadoEleicoesDistritos/VIANA DO CASTELO_ARCOS DE VALDEVEZ.xlsx
+++ b/ResultadoEleicoesDistritos/VIANA DO CASTELO_ARCOS DE VALDEVEZ.xlsx
@@ -597,64 +597,64 @@
         <v>7293</v>
       </c>
       <c r="H2" t="n">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="I2" t="n">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="J2" t="n">
-        <v>2936</v>
+        <v>3069</v>
       </c>
       <c r="K2" t="n">
         <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>827</v>
+        <v>780</v>
       </c>
       <c r="M2" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N2" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>36</v>
+      </c>
+      <c r="S2" t="n">
+        <v>345</v>
+      </c>
+      <c r="T2" t="n">
+        <v>554</v>
+      </c>
+      <c r="U2" t="n">
+        <v>48</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4565</v>
+      </c>
+      <c r="W2" t="n">
         <v>2</v>
       </c>
-      <c r="P2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>41</v>
-      </c>
-      <c r="S2" t="n">
-        <v>325</v>
-      </c>
-      <c r="T2" t="n">
-        <v>515</v>
-      </c>
-      <c r="U2" t="n">
-        <v>38</v>
-      </c>
-      <c r="V2" t="n">
-        <v>4632</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>4841</v>
+        <v>4694</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AA2" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
